--- a/biology/Botanique/Volvox/Volvox.xlsx
+++ b/biology/Botanique/Volvox/Volvox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Volvox est un genre d'algues vertes de la famille des Volvocaceae.
 Les Volvox sont des colonies sphériques constituées d'organismes unicellulaires flagellés entourés de gangues gélatineuses, entourée par des cellules superficielles biflagellées et unies entre elles par des connexions cytoplasmiques. À l'intérieur de la colonie existent de multiples oospores. Ils sont constitués d'une unique cellule. Les Volvox se maintiennent à la surface de l'eau, pouvant ainsi pratiquer la photosynthèse.
@@ -518,7 +530,9 @@
           <t>Passage de l'unicellularité à la multicellularité ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Volvox évoque le passage de l'unicellularité à la multicellularité, selon la théorie coloniale (1874). Volvox est composé de plusieurs cellules, c'est la multicellularité (ou pluricellularité).
 </t>
@@ -549,7 +563,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dissémination des Volvox peut se faire par reproduction sexuée ou  par multiplication asexuée.
 Reproduction : les colonies forment des gamètes mâles (spermatozoïdes) et des gamètes femelles (oosphères) qui sont libérés dans l'eau. Quand un spermatozoïde féconde une oosphère, il se forme un zygote diploïde qui se développe en une nouvelle colonie. Le cycle de reproduction de Volvox est de type haplophasique, anisogame.
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013) :
 Volvox africanus G.S.West
 Volvox amboensis M.F.Rich &amp; M.A.Pocock
 Volvox aureus Ehrenberg
@@ -608,14 +626,14 @@
 Volvox rousseletii G.S.West
 Volvox spermatosphaera Powers
 Volvox tertius Meyer
-Selon ITIS      (30 avril 2013)[2] :
+Selon ITIS      (30 avril 2013) :
 Volvox aureus Ehrenberg
 Volvox globator Linnaeus
 Volvox perglobator
 Volvox spermatosphaera Powers
 Volvox tertius A. Meyer
 Volvox weismannia Powers
-Selon World Register of Marine Species                               (30 avril 2013)[3] :
+Selon World Register of Marine Species                               (30 avril 2013) :
 Volvox aureus Ehrenberg, 1832
 Volvox chaos Linnaeus, 1758
 Volvox dissipatrix (W.R.Shaw) Printz, 1927
